--- a/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>cost</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,14 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.071105</v>
+        <v>36.964801</v>
       </c>
       <c r="C2" t="n">
-        <v>29355</v>
+        <v>6317</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0399</t>
+          <t>0.01308</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6dfb1bf9-5df7-4384-8bee-aff0e333abfb</t>
         </is>
       </c>
     </row>
@@ -480,14 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.436235</v>
+        <v>26.4451</v>
       </c>
       <c r="C3" t="n">
-        <v>8773</v>
+        <v>4734</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01749</t>
+          <t>0.01002</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51f5e3fe-6426-43e7-9281-408d44966e8b</t>
         </is>
       </c>
     </row>
@@ -498,14 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.439118</v>
+        <v>26.748968</v>
       </c>
       <c r="C4" t="n">
-        <v>4769</v>
+        <v>4406</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01059</t>
+          <t>0.00816</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ae0da0bd-373a-42de-a1bd-e08dffd8f7fb</t>
         </is>
       </c>
     </row>
@@ -516,14 +536,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.486124</v>
+        <v>20.81905</v>
       </c>
       <c r="C5" t="n">
-        <v>10448</v>
+        <v>3814</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.00789</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2440b0e8-0bb3-433b-a73b-a24615501a19</t>
         </is>
       </c>
     </row>
@@ -534,14 +559,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.377319</v>
+        <v>19.547264</v>
       </c>
       <c r="C6" t="n">
-        <v>4588</v>
+        <v>3834</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00942</t>
+          <t>0.00765</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>a0ad186c-056a-4d31-8ae7-1d12b67d4213</t>
         </is>
       </c>
     </row>
@@ -552,14 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.457784</v>
+        <v>35.073399</v>
       </c>
       <c r="C7" t="n">
-        <v>6773</v>
+        <v>7192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.01362</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ff26d901-81a4-445f-9062-a45b4af6e8bf</t>
         </is>
       </c>
     </row>
@@ -570,14 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.218491</v>
+        <v>23.909412</v>
       </c>
       <c r="C8" t="n">
-        <v>4551</v>
+        <v>4314</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00984</t>
+          <t>0.00825</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57a49f4f-a04a-467a-b623-a5a0650821a5</t>
         </is>
       </c>
     </row>
@@ -588,14 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.823999</v>
+        <v>38.633731</v>
       </c>
       <c r="C9" t="n">
-        <v>4642</v>
+        <v>6661</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.01275</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ac65bf20-720c-4740-8f8f-90bdb7353178</t>
         </is>
       </c>
     </row>
@@ -606,14 +651,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.584286</v>
+        <v>19.884243</v>
       </c>
       <c r="C10" t="n">
-        <v>4432</v>
+        <v>3922</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00834</t>
+          <t>0.00888</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96c37e7d-57dd-42ae-93f5-098b8d49bfe7</t>
         </is>
       </c>
     </row>
@@ -624,14 +674,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.692315</v>
+        <v>68.07279200000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4452</v>
+        <v>17667</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00867</t>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24f231cc-34dc-4652-a5db-963c266d9322</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
+          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.964801</v>
+        <v>201.94161</v>
       </c>
       <c r="C2" t="n">
-        <v>6317</v>
+        <v>69560</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.01308</t>
+          <t>0.06801</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6dfb1bf9-5df7-4384-8bee-aff0e333abfb</t>
+          <t>9de2b1c8-62bb-4ec9-8933-49f8cf82bf59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
+          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.4451</v>
+        <v>49.854476</v>
       </c>
       <c r="C3" t="n">
-        <v>4734</v>
+        <v>6151</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01002</t>
+          <t>0.01233</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51f5e3fe-6426-43e7-9281-408d44966e8b</t>
+          <t>bf0c468c-37e6-424a-8599-b9ca644eb9fe</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
+          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.748968</v>
+        <v>23.678993</v>
       </c>
       <c r="C4" t="n">
-        <v>4406</v>
+        <v>3814</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00816</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ae0da0bd-373a-42de-a1bd-e08dffd8f7fb</t>
+          <t>4897631a-4f02-4640-af14-a35e73be6209</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
+          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.81905</v>
+        <v>31.254502</v>
       </c>
       <c r="C5" t="n">
-        <v>3814</v>
+        <v>4532</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00789</t>
+          <t>0.00933</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2440b0e8-0bb3-433b-a73b-a24615501a19</t>
+          <t>524813e7-5ac8-42e0-a338-7ff843e65e9b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
+          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.547264</v>
+        <v>115.464501</v>
       </c>
       <c r="C6" t="n">
-        <v>3834</v>
+        <v>29142</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00765</t>
+          <t>0.03906</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>a0ad186c-056a-4d31-8ae7-1d12b67d4213</t>
+          <t>362fc2fc-917b-4eba-ae03-47f4d9b5492f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
+          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.073399</v>
+        <v>49.087498</v>
       </c>
       <c r="C7" t="n">
-        <v>7192</v>
+        <v>7910</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01362</t>
+          <t>0.01452</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ff26d901-81a4-445f-9062-a45b4af6e8bf</t>
+          <t>7c59c425-3e7a-4e80-a86a-827e062ff418</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
+          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.909412</v>
+        <v>185.681</v>
       </c>
       <c r="C8" t="n">
-        <v>4314</v>
+        <v>62879</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00825</t>
+          <t>0.05877</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>57a49f4f-a04a-467a-b623-a5a0650821a5</t>
+          <t>b4ebd4d7-6e9c-46aa-94e6-3df823eea15a</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
+          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.633731</v>
+        <v>34.808001</v>
       </c>
       <c r="C9" t="n">
-        <v>6661</v>
+        <v>4609</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01275</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ac65bf20-720c-4740-8f8f-90bdb7353178</t>
+          <t>c475182f-d963-43b4-9177-2b593667df6b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
+          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.884243</v>
+        <v>54.454471</v>
       </c>
       <c r="C10" t="n">
-        <v>3922</v>
+        <v>6312</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00888</t>
+          <t>0.01305</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96c37e7d-57dd-42ae-93f5-098b8d49bfe7</t>
+          <t>8d836cf1-428b-4fae-bdcd-3043a4118542</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
+          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.07279200000001</v>
+        <v>156.042001</v>
       </c>
       <c r="C11" t="n">
-        <v>17667</v>
+        <v>44203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.04989</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24f231cc-34dc-4652-a5db-963c266d9322</t>
+          <t>041e1fea-45e2-48f8-a406-67aa87dbfa3d</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
+          <t>Move to location (7, 5) and remove the screws.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.94161</v>
+        <v>22.767147</v>
       </c>
       <c r="C2" t="n">
-        <v>69560</v>
+        <v>3837</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06801</t>
+          <t>0.00804</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9de2b1c8-62bb-4ec9-8933-49f8cf82bf59</t>
+          <t>a2c581be-a93b-4358-aba4-e81a987ed28b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
+          <t>Move Robot48 to location (6, 5) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.854476</v>
+        <v>42.24573</v>
       </c>
       <c r="C3" t="n">
-        <v>6151</v>
+        <v>5950</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01233</t>
+          <t>0.01353</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bf0c468c-37e6-424a-8599-b9ca644eb9fe</t>
+          <t>040e981e-b63f-4ccd-b75f-44796766e9c8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
+          <t>Move Robot35 to location (3, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.678993</v>
+        <v>28.530881</v>
       </c>
       <c r="C4" t="n">
-        <v>3814</v>
+        <v>4464</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.00888</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4897631a-4f02-4640-af14-a35e73be6209</t>
+          <t>44bb4645-a38c-4a5c-be61-f4a96e197333</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
+          <t>Move Robot15 to location (3, 4) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.254502</v>
+        <v>29.356178</v>
       </c>
       <c r="C5" t="n">
-        <v>4532</v>
+        <v>4448</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00933</t>
+          <t>0.00906</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>524813e7-5ac8-42e0-a338-7ff843e65e9b</t>
+          <t>0483bbe5-8a4e-4562-9c79-c6b42f8bf898</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
+          <t>Move Robot29 to location (9, 10) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.464501</v>
+        <v>30.561105</v>
       </c>
       <c r="C6" t="n">
-        <v>29142</v>
+        <v>4559</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03906</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>362fc2fc-917b-4eba-ae03-47f4d9b5492f</t>
+          <t>56d5ed3c-117f-436c-89cd-9977af779654</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
+          <t>Move Robot31 to location (8, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.087498</v>
+        <v>28.585955</v>
       </c>
       <c r="C7" t="n">
-        <v>7910</v>
+        <v>4484</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01452</t>
+          <t>0.00903</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7c59c425-3e7a-4e80-a86a-827e062ff418</t>
+          <t>bf9becbe-829f-4d58-9eac-ad266fdf7e47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
+          <t>Move Robot13 to location (7, 5) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.681</v>
+        <v>29.192122</v>
       </c>
       <c r="C8" t="n">
-        <v>62879</v>
+        <v>4557</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.05877</t>
+          <t>0.00966</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b4ebd4d7-6e9c-46aa-94e6-3df823eea15a</t>
+          <t>5b8e0628-634e-4827-985e-d92b7e4d8cdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
+          <t>Move Robot50 to location (5, 12) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.808001</v>
+        <v>85.219786</v>
       </c>
       <c r="C9" t="n">
-        <v>4609</v>
+        <v>19963</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>c475182f-d963-43b4-9177-2b593667df6b</t>
+          <t>624f9048-ab6b-4977-95ba-23ba7f9f3184</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
+          <t>Move Robot9 to location (11, 2) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.454471</v>
+        <v>28.737158</v>
       </c>
       <c r="C10" t="n">
-        <v>6312</v>
+        <v>4436</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.01305</t>
+          <t>0.00933</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8d836cf1-428b-4fae-bdcd-3043a4118542</t>
+          <t>b0d4f7b4-f07d-45b3-9006-2bc464ed0909</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
+          <t>Move Robot40 to location (10, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.042001</v>
+        <v>116.261215</v>
       </c>
       <c r="C11" t="n">
-        <v>44203</v>
+        <v>36166</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.04989</t>
+          <t>0.04173</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>041e1fea-45e2-48f8-a406-67aa87dbfa3d</t>
+          <t>505fef53-6169-4d85-acf9-11a98bb67cfd</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Hard_comparison/Normal_Hard_langsmith_extraction.xlsx
@@ -463,23 +463,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (7, 5) and remove the screws.</t>
+          <t>Move Robot21 to location (4, 7) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.767147</v>
+        <v>205.886484</v>
       </c>
       <c r="C2" t="n">
-        <v>3837</v>
+        <v>88350</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00804</t>
+          <t>0.06939</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>a2c581be-a93b-4358-aba4-e81a987ed28b</t>
+          <t>b13923cd-4fde-48ae-add9-c30fe08ee06d</t>
         </is>
       </c>
     </row>
